--- a/6.安全建设顺序-通用内容细节.xlsx
+++ b/6.安全建设顺序-通用内容细节.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
@@ -1738,25 +1738,25 @@
   <sheetPr/>
   <dimension ref="B1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="3"/>
-    <col min="2" max="2" width="22.1818181818182" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.73148148148148" style="3"/>
+    <col min="2" max="2" width="22.1851851851852" style="4" customWidth="1"/>
     <col min="3" max="4" width="19" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.5454545454545" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.5545454545455" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.2181818181818" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.8909090909091" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.72727272727273" style="3"/>
-    <col min="10" max="10" width="18.2181818181818" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.72727272727273" style="3"/>
+    <col min="5" max="5" width="21.5462962962963" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.5555555555556" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.2222222222222" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.8888888888889" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.73148148148148" style="3"/>
+    <col min="10" max="10" width="18.2222222222222" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.73148148148148" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="2:10">
+    <row r="1" ht="28.8" spans="2:10">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="42" spans="2:7">
+    <row r="4" ht="43.2" spans="2:7">
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
         <v>19</v>
@@ -1835,7 +1835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="2:7">
+    <row r="6" ht="28.8" spans="2:7">
       <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="2:7">
+    <row r="7" ht="28.8" spans="2:7">
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
         <v>28</v>
@@ -1867,7 +1867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" ht="42" spans="2:7">
+    <row r="9" ht="43.2" spans="2:7">
       <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="2:7">
+    <row r="10" ht="28.8" spans="2:7">
       <c r="B10" s="6"/>
       <c r="C10" s="4" t="s">
         <v>36</v>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="42" spans="2:10">
+    <row r="14" s="3" customFormat="1" ht="43.2" spans="2:10">
       <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
         <v>47</v>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="42" spans="2:10">
+    <row r="15" s="3" customFormat="1" ht="43.2" spans="2:10">
       <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
         <v>51</v>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" ht="42" spans="2:7">
+    <row r="16" ht="43.2" spans="2:7">
       <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
         <v>52</v>
@@ -1982,7 +1982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="42" spans="2:10">
+    <row r="18" s="3" customFormat="1" ht="43.2" spans="2:10">
       <c r="B18" s="6" t="s">
         <v>53</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="G20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" ht="28" spans="2:7">
+    <row r="21" ht="28.8" spans="2:7">
       <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" ht="28" spans="2:6">
+    <row r="23" ht="28.8" spans="2:6">
       <c r="B23" s="4" t="s">
         <v>65</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" ht="28" spans="2:7">
+    <row r="27" ht="28.8" spans="2:7">
       <c r="B27" s="4" t="s">
         <v>73</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" ht="28" spans="2:6">
+    <row r="35" ht="28.8" spans="2:6">
       <c r="B35" s="4" t="s">
         <v>87</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" ht="28" spans="2:5">
+    <row r="37" ht="28.8" spans="2:5">
       <c r="B37" s="4" t="s">
         <v>90</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" ht="28" spans="2:2">
+    <row r="40" ht="28.8" spans="2:2">
       <c r="B40" s="4" t="s">
         <v>93</v>
       </c>
@@ -2182,12 +2182,12 @@
       <selection activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="22.1818181818182" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.3636363636364" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.2181818181818" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.1851851851852" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.3611111111111" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.2222222222222" style="3" customWidth="1"/>
     <col min="5" max="6" width="9" style="4"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
@@ -2249,7 +2249,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" ht="28" spans="2:5">
+    <row r="13" ht="28.8" spans="2:5">
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
@@ -2284,7 +2284,7 @@
     <row r="16" spans="3:3">
       <c r="C16" s="5"/>
     </row>
-    <row r="17" ht="28" spans="2:5">
+    <row r="17" ht="28.8" spans="2:5">
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" ht="126" spans="2:6">
+    <row r="26" ht="129.6" spans="2:6">
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
         <v>129</v>
@@ -2424,7 +2424,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" ht="28" spans="2:4">
+    <row r="33" ht="28.8" spans="2:4">
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
         <v>138</v>
@@ -2488,7 +2488,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" ht="28" spans="2:5">
+    <row r="41" ht="28.8" spans="2:5">
       <c r="B41" s="5" t="s">
         <v>61</v>
       </c>
@@ -2622,10 +2622,10 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.5545454545455" customWidth="1"/>
-    <col min="2" max="2" width="17.1090909090909" customWidth="1"/>
+    <col min="1" max="1" width="18.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2749,11 +2749,11 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
     <col min="2" max="2" width="19" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2790,7 +2790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="42" spans="1:3">
+    <row r="4" ht="43.2" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
@@ -2810,7 +2810,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:3">
+    <row r="7" ht="28.8" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>28</v>
@@ -2868,7 +2868,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" ht="28" spans="1:3">
+    <row r="15" ht="28.8" spans="1:3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>181</v>
@@ -2886,7 +2886,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" ht="28" spans="1:3">
+    <row r="18" ht="28.8" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" ht="28" spans="1:3">
+    <row r="29" ht="28.8" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>87</v>
       </c>
@@ -2994,12 +2994,12 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.4454545454545" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.2181818181818" customWidth="1"/>
-    <col min="4" max="4" width="17.5545454545455" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.4444444444444" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3225,11 +3225,11 @@
   <sheetPr/>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
@@ -3261,42 +3261,42 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="7" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="8" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="9" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B9" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="10" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B10" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="11" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="12" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B12" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="13" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15" spans="2:2">
+    <row r="14" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>223</v>
       </c>
@@ -3345,7 +3345,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -3396,7 +3396,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
